--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.843563989676</v>
+        <v>0.2453361488335556</v>
       </c>
       <c r="R2">
-        <v>7.592075907083999</v>
+        <v>2.208025339502</v>
       </c>
       <c r="S2">
-        <v>0.1767440758104232</v>
+        <v>0.06146271400217317</v>
       </c>
       <c r="T2">
-        <v>0.2036528122812712</v>
+        <v>0.07747227916132222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.111818830764</v>
+        <v>0.08125041815900001</v>
       </c>
       <c r="R3">
-        <v>1.006369476876</v>
+        <v>0.731253763431</v>
       </c>
       <c r="S3">
-        <v>0.02342835415387526</v>
+        <v>0.0203552197163232</v>
       </c>
       <c r="T3">
-        <v>0.0269952482915239</v>
+        <v>0.0256572670090241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.2547643016</v>
+        <v>0.2240838301831112</v>
       </c>
       <c r="R4">
-        <v>2.2928787144</v>
+        <v>2.016754471648</v>
       </c>
       <c r="S4">
-        <v>0.05337838218185975</v>
+        <v>0.05613848767309067</v>
       </c>
       <c r="T4">
-        <v>0.06150507504432663</v>
+        <v>0.07076121937196511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.759082878868</v>
+        <v>0.2226829121178334</v>
       </c>
       <c r="R5">
-        <v>4.554497273208</v>
+        <v>1.336097472707</v>
       </c>
       <c r="S5">
-        <v>0.1590435385234619</v>
+        <v>0.05578752338675933</v>
       </c>
       <c r="T5">
-        <v>0.1221716154537821</v>
+        <v>0.04687922486235582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.2614644163666667</v>
+        <v>0.2876307873795556</v>
       </c>
       <c r="R6">
-        <v>2.3531797473</v>
+        <v>2.588677086416</v>
       </c>
       <c r="S6">
-        <v>0.05478219458584005</v>
+        <v>0.07205855682899484</v>
       </c>
       <c r="T6">
-        <v>0.06312261352574407</v>
+        <v>0.09082808530746797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>0.4790290070029999</v>
+        <v>0.1917320279473333</v>
       </c>
       <c r="R7">
-        <v>4.311261063027</v>
+        <v>1.725588251526</v>
       </c>
       <c r="S7">
-        <v>0.100366469130159</v>
+        <v>0.0480335688597547</v>
       </c>
       <c r="T7">
-        <v>0.1156469522578071</v>
+        <v>0.0605451632950334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
         <v>0.06349780706699999</v>
@@ -948,10 +948,10 @@
         <v>0.571480263603</v>
       </c>
       <c r="S8">
-        <v>0.01330410183862401</v>
+        <v>0.0159077558447041</v>
       </c>
       <c r="T8">
-        <v>0.01532961001317152</v>
+        <v>0.0200513453016002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>0.1446712898</v>
+        <v>0.1751231826026667</v>
       </c>
       <c r="R9">
-        <v>1.3020416082</v>
+        <v>1.576108643424</v>
       </c>
       <c r="S9">
-        <v>0.03031162273987522</v>
+        <v>0.04387264632070345</v>
       </c>
       <c r="T9">
-        <v>0.03492647313625247</v>
+        <v>0.05530042007554885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>0.4310552870289999</v>
+        <v>0.1740283546985</v>
       </c>
       <c r="R10">
-        <v>2.586331722174</v>
+        <v>1.044170128191</v>
       </c>
       <c r="S10">
-        <v>0.09031498411685328</v>
+        <v>0.04359836511642382</v>
       </c>
       <c r="T10">
-        <v>0.06937677325137559</v>
+        <v>0.03663646345715023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>0.1484760388916667</v>
+        <v>0.2247856030453333</v>
       </c>
       <c r="R11">
-        <v>1.336284350025</v>
+        <v>2.023070427408</v>
       </c>
       <c r="S11">
-        <v>0.03110879624434814</v>
+        <v>0.05631429896274497</v>
       </c>
       <c r="T11">
-        <v>0.03584501383029057</v>
+        <v>0.0709828252924477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N12">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O12">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P12">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q12">
-        <v>0.2413364741576666</v>
+        <v>0.07897277470311111</v>
       </c>
       <c r="R12">
-        <v>2.172028267418999</v>
+        <v>0.710754972328</v>
       </c>
       <c r="S12">
-        <v>0.05056497504205452</v>
+        <v>0.01978461424707702</v>
       </c>
       <c r="T12">
-        <v>0.0582633354075871</v>
+        <v>0.0249380324792431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P13">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q13">
-        <v>0.03199041529899999</v>
+        <v>0.026154201076</v>
       </c>
       <c r="R13">
-        <v>0.2879137376909999</v>
+        <v>0.235387809684</v>
       </c>
       <c r="S13">
-        <v>0.006702652621510122</v>
+        <v>0.006552267932517787</v>
       </c>
       <c r="T13">
-        <v>0.007723110660744823</v>
+        <v>0.008258976822758746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N14">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O14">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P14">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q14">
-        <v>0.07288589726666665</v>
+        <v>0.07213173403022223</v>
       </c>
       <c r="R14">
-        <v>0.6559730753999998</v>
+        <v>0.6491856062720001</v>
       </c>
       <c r="S14">
-        <v>0.0152711006037115</v>
+        <v>0.01807076600924451</v>
       </c>
       <c r="T14">
-        <v>0.01759607822958589</v>
+        <v>0.02277776781672258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N15">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O15">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P15">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q15">
-        <v>0.2171671477463333</v>
+        <v>0.07168078382466667</v>
       </c>
       <c r="R15">
-        <v>1.303002886478</v>
+        <v>0.4300847029479999</v>
       </c>
       <c r="S15">
-        <v>0.04550100205149065</v>
+        <v>0.01795779193817891</v>
       </c>
       <c r="T15">
-        <v>0.03495225884059678</v>
+        <v>0.01509024447034504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N16">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O16">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P16">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q16">
-        <v>0.0748027430472222</v>
+        <v>0.0925872582471111</v>
       </c>
       <c r="R16">
-        <v>0.6732246874249999</v>
+        <v>0.8332853242239999</v>
       </c>
       <c r="S16">
-        <v>0.01567271937845973</v>
+        <v>0.02319537581780612</v>
       </c>
       <c r="T16">
-        <v>0.01805884221512487</v>
+        <v>0.02923721576215006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N17">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O17">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P17">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q17">
-        <v>0.1142119844855</v>
+        <v>0.406960703316</v>
       </c>
       <c r="R17">
-        <v>0.6852719069129999</v>
+        <v>2.441764219896</v>
       </c>
       <c r="S17">
-        <v>0.02392976927822315</v>
+        <v>0.1019536233733096</v>
       </c>
       <c r="T17">
-        <v>0.01838200154057519</v>
+        <v>0.08567340052926042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.803997</v>
       </c>
       <c r="O18">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P18">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q18">
-        <v>0.0151393975095</v>
+        <v>0.134777233098</v>
       </c>
       <c r="R18">
-        <v>0.09083638505699999</v>
+        <v>0.8086633985879998</v>
       </c>
       <c r="S18">
-        <v>0.003172016413563284</v>
+        <v>0.03376499782560211</v>
       </c>
       <c r="T18">
-        <v>0.00243663070558362</v>
+        <v>0.02837331412921331</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N19">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O19">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P19">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q19">
-        <v>0.0344930993</v>
+        <v>0.371707608384</v>
       </c>
       <c r="R19">
-        <v>0.2069585958</v>
+        <v>2.230245650304</v>
       </c>
       <c r="S19">
-        <v>0.007227016601262471</v>
+        <v>0.09312185968174297</v>
       </c>
       <c r="T19">
-        <v>0.005551538284953892</v>
+        <v>0.07825191610239653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N20">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O20">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P20">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q20">
-        <v>0.1027739010265</v>
+        <v>0.369383782059</v>
       </c>
       <c r="R20">
-        <v>0.411095604106</v>
+        <v>1.477535128236</v>
       </c>
       <c r="S20">
-        <v>0.02153325459202855</v>
+        <v>0.09253968427268371</v>
       </c>
       <c r="T20">
-        <v>0.01102738920385885</v>
+        <v>0.05184180266299689</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N21">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O21">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P21">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q21">
-        <v>0.03540024257916666</v>
+        <v>0.4771185497279999</v>
       </c>
       <c r="R21">
-        <v>0.212401455475</v>
+        <v>2.862711298368</v>
       </c>
       <c r="S21">
-        <v>0.007417081851161926</v>
+        <v>0.119529882190165</v>
       </c>
       <c r="T21">
-        <v>0.005697539680781851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.021791</v>
-      </c>
-      <c r="N22">
-        <v>6.065372999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.3781620571349336</v>
-      </c>
-      <c r="P22">
-        <v>0.426545054769166</v>
-      </c>
-      <c r="Q22">
-        <v>0.126750121372</v>
-      </c>
-      <c r="R22">
-        <v>1.140751092348</v>
-      </c>
-      <c r="S22">
-        <v>0.02655676787407379</v>
-      </c>
-      <c r="T22">
-        <v>0.03059995328192546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.267999</v>
-      </c>
-      <c r="N23">
-        <v>0.803997</v>
-      </c>
-      <c r="O23">
-        <v>0.05012736388187754</v>
-      </c>
-      <c r="P23">
-        <v>0.05654078395495961</v>
-      </c>
-      <c r="Q23">
-        <v>0.016801393308</v>
-      </c>
-      <c r="R23">
-        <v>0.151212539772</v>
-      </c>
-      <c r="S23">
-        <v>0.003520238854304872</v>
-      </c>
-      <c r="T23">
-        <v>0.004056184283935749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6105999999999999</v>
-      </c>
-      <c r="N24">
-        <v>1.8318</v>
-      </c>
-      <c r="O24">
-        <v>0.1142085171447447</v>
-      </c>
-      <c r="P24">
-        <v>0.1288206399385756</v>
-      </c>
-      <c r="Q24">
-        <v>0.03827973519999999</v>
-      </c>
-      <c r="R24">
-        <v>0.3445176168</v>
-      </c>
-      <c r="S24">
-        <v>0.008020395018035718</v>
-      </c>
-      <c r="T24">
-        <v>0.009241475243456759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.819313</v>
-      </c>
-      <c r="N25">
-        <v>3.638626</v>
-      </c>
-      <c r="O25">
-        <v>0.3402899442387109</v>
-      </c>
-      <c r="P25">
-        <v>0.2558849928033299</v>
-      </c>
-      <c r="Q25">
-        <v>0.114056370596</v>
-      </c>
-      <c r="R25">
-        <v>0.6843382235759999</v>
-      </c>
-      <c r="S25">
-        <v>0.02389716495487655</v>
-      </c>
-      <c r="T25">
-        <v>0.01835695605371662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.6266583333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.879975</v>
-      </c>
-      <c r="O26">
-        <v>0.1172121175997333</v>
-      </c>
-      <c r="P26">
-        <v>0.1322085285339687</v>
-      </c>
-      <c r="Q26">
-        <v>0.03928646423333333</v>
-      </c>
-      <c r="R26">
-        <v>0.3535781781</v>
-      </c>
-      <c r="S26">
-        <v>0.008231325539923411</v>
-      </c>
-      <c r="T26">
-        <v>0.00948451928202731</v>
+        <v>0.1004430360909977</v>
       </c>
     </row>
   </sheetData>
